--- a/biology/Zoologie/Cyrenoididae/Cyrenoididae.xlsx
+++ b/biology/Zoologie/Cyrenoididae/Cyrenoididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrenoididae est une famille de mollusques bivalves.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[1], Catalogue of Life                                   (1 juin 2016)[2], ITIS      (1 juin 2016)[3] et NCBI  (1 juin 2016)[4]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016), Catalogue of Life                                   (1 juin 2016), ITIS      (1 juin 2016) et NCBI  (1 juin 2016):
 genre Cyrenoida</t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (1 juin 2016)[1] et Catalogue of Life                                   (1 juin 2016)[2]  :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (1 juin 2016) et Catalogue of Life                                   (1 juin 2016)  :
 genre Cyrenoida Joannis, 1835
 Cyrenoida americana Morelet, 1851
 Cyrenoida dupontia Joannis, 1835
@@ -552,7 +568,7 @@
 Cyrenoida insula Morrison, 1946
 Cyrenoida panamensis Pilsbry &amp; Zetek, 1931
 Cyrenoida rosea (A. d'Ailly, 1896)
-Selon ITIS      (1 juin 2016)[3] et NCBI  (1 juin 2016)[4] :
+Selon ITIS      (1 juin 2016) et NCBI  (1 juin 2016) :
 genre Cyrenoida
 Cyrenoida floridana</t>
         </is>
